--- a/1st_round_screening/ACE/iteration_5/data/unlabeled_processed_5.xlsx
+++ b/1st_round_screening/ACE/iteration_5/data/unlabeled_processed_5.xlsx
@@ -545,10 +545,10 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>82</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.274</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -704,10 +704,10 @@
         <v>83</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.274</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -757,10 +757,10 @@
         <v>84</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.549</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -810,10 +810,10 @@
         <v>85</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.549</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -863,10 +863,10 @@
         <v>86</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.724</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -916,10 +916,10 @@
         <v>87</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.274</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -969,10 +969,10 @@
         <v>88</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.726</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.274</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1022,10 +1022,10 @@
         <v>89</v>
       </c>
       <c r="B11" t="n">
-        <v>0.986</v>
+        <v>0.549</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1075,10 +1075,10 @@
         <v>90</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.491</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.509</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>91</v>
       </c>
       <c r="B13" t="n">
-        <v>0.979</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>92</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.585</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1234,10 +1234,10 @@
         <v>93</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.549</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>94</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.414</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.586</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         <v>95</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.549</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
